--- a/Fivetofive Hotel/VAT RETAINED.xlsx
+++ b/Fivetofive Hotel/VAT RETAINED.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRONT OFFICE\Documents\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89B505-B0DB-4D37-A1FD-9453DD8A29A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>RGB</t>
   </si>
   <si>
-    <t>RESTAURANT PACKAGES</t>
-  </si>
-  <si>
     <t>VAT RETAINED</t>
   </si>
   <si>
@@ -76,37 +71,87 @@
     <t>MINISPORTS</t>
   </si>
   <si>
-    <t>SDC007001447/16269</t>
-  </si>
-  <si>
-    <t>SDC007001447/16270</t>
-  </si>
-  <si>
-    <t>SDC007001447/16272</t>
-  </si>
-  <si>
-    <t>SDC007001447/16302</t>
-  </si>
-  <si>
-    <t>SDC007001447/16306</t>
-  </si>
-  <si>
-    <t>SDC007001447/16260</t>
-  </si>
-  <si>
-    <t>SDC007001447/16285</t>
+    <t>SDC007001447/16318</t>
+  </si>
+  <si>
+    <t>05/03/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16326</t>
+  </si>
+  <si>
+    <t>SDC007001447/16327</t>
+  </si>
+  <si>
+    <t>SDC007001447/16332</t>
+  </si>
+  <si>
+    <t>06/03/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16337</t>
+  </si>
+  <si>
+    <t>08/03/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16353</t>
+  </si>
+  <si>
+    <t>14/03/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16371</t>
+  </si>
+  <si>
+    <t>19/03/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16393</t>
+  </si>
+  <si>
+    <t>26/03/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16394</t>
+  </si>
+  <si>
+    <t>DIFFERENT GOODS</t>
+  </si>
+  <si>
+    <t>MINISPOC</t>
+  </si>
+  <si>
+    <t>SDC007001447/16325</t>
+  </si>
+  <si>
+    <t>SDC007001447/16372</t>
+  </si>
+  <si>
+    <t>SDC007001447/16377</t>
+  </si>
+  <si>
+    <t>VILLE DE KIGALI</t>
+  </si>
+  <si>
+    <t>SDC007001447/16319</t>
+  </si>
+  <si>
+    <t>SDC007001447/16396</t>
+  </si>
+  <si>
+    <t>27/03/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +168,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -207,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,75 +286,74 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,26 +633,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="9.140625" style="2"/>
     <col min="15" max="16" width="9.140625" style="1"/>
@@ -617,41 +668,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="6"/>
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J2" s="3">
         <v>102643158</v>
@@ -661,296 +712,463 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="27">
         <v>102643158</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="32">
-        <v>44608</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="F3" s="7" t="str">
         <f>E3</f>
-        <v>44608</v>
-      </c>
-      <c r="G3" s="24">
-        <f t="shared" ref="G3:G9" si="0">H3*100/18</f>
-        <v>15254.222222222223</v>
-      </c>
-      <c r="H3" s="30">
-        <v>2745.76</v>
+        <v>05/03/2022</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G16" si="0">H3*100/18</f>
+        <v>311440.66666666669</v>
+      </c>
+      <c r="H3" s="18">
+        <v>56059.32</v>
       </c>
       <c r="J3" s="9">
         <v>101397575</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="27">
         <v>102643158</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="C4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="32">
-        <v>44608</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F9" si="1">E4</f>
-        <v>44608</v>
-      </c>
-      <c r="G4" s="24">
-        <f t="shared" si="0"/>
-        <v>45762.722222222226</v>
-      </c>
-      <c r="H4" s="30">
-        <v>8237.2900000000009</v>
+      <c r="E4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F11" si="1">E4</f>
+        <v>05/03/2022</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="0"/>
+        <v>194915.22222222222</v>
+      </c>
+      <c r="H4" s="33">
+        <v>35084.74</v>
       </c>
       <c r="J4" s="9">
         <v>103372638</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>05/03/2022</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>483050.88888888888</v>
+      </c>
+      <c r="H5" s="33">
+        <v>86949.16</v>
+      </c>
+      <c r="J5" s="36">
+        <v>101330738</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>06/03/2022</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>169491.55555555556</v>
+      </c>
+      <c r="H6" s="33">
+        <v>30508.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>08/03/2022</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>5186440.666666667</v>
+      </c>
+      <c r="H7" s="33">
+        <v>933559.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>14/03/2022</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>22881.333333333336</v>
+      </c>
+      <c r="H8" s="33">
+        <v>4118.6400000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>19/03/2022</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>144067.77777777778</v>
+      </c>
+      <c r="H9" s="33">
+        <v>25932.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>26/03/2022</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>76271.166666666672</v>
+      </c>
+      <c r="H10" s="33">
+        <v>13728.81</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="14"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>102643158</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>26/03/2022</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>457627.11111111112</v>
+      </c>
+      <c r="H11" s="33">
+        <v>82372.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>101397575</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="24" t="str">
+        <f>E12</f>
+        <v>05/03/2022</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>53389.833333333336</v>
+      </c>
+      <c r="H12" s="34">
+        <v>9610.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>101397575</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="24" t="str">
+        <f t="shared" ref="F13:F16" si="2">E13</f>
+        <v>19/03/2022</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>49576.277777777781</v>
+      </c>
+      <c r="H13" s="34">
+        <v>8923.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>101397575</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>19/03/2022</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>228813.55555555556</v>
+      </c>
+      <c r="H14" s="34">
+        <v>41186.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>101330738</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>05/03/2022</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>15762.722222222223</v>
+      </c>
+      <c r="H15" s="34">
+        <v>2837.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>101330738</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>27/03/2022</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>30084.722222222223</v>
+      </c>
+      <c r="H16" s="34">
+        <v>5415.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>102643158</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="32">
-        <v>44608</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="1"/>
-        <v>44608</v>
-      </c>
-      <c r="G5" s="24">
-        <f t="shared" si="0"/>
-        <v>61016.944444444445</v>
-      </c>
-      <c r="H5" s="30">
-        <v>10983.05</v>
-      </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>102643158</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="32">
-        <v>44619</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>44619</v>
-      </c>
-      <c r="G6" s="24">
-        <f t="shared" si="0"/>
-        <v>528813.5555555555</v>
-      </c>
-      <c r="H6" s="30">
-        <v>95186.44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>102643158</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="32">
-        <v>44619</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="1"/>
-        <v>44619</v>
-      </c>
-      <c r="G7" s="24">
-        <f t="shared" si="0"/>
-        <v>61016.944444444445</v>
-      </c>
-      <c r="H7" s="30">
-        <v>10983.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>101397575</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="32">
-        <v>44603</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="1"/>
-        <v>44603</v>
-      </c>
-      <c r="G8" s="24">
-        <f t="shared" si="0"/>
-        <v>57203.388888888891</v>
-      </c>
-      <c r="H8" s="30">
-        <v>10296.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>101397575</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="32">
-        <v>44611</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="1"/>
-        <v>44611</v>
-      </c>
-      <c r="G9" s="24">
-        <f t="shared" si="0"/>
-        <v>99152.555555555562</v>
-      </c>
-      <c r="H9" s="30">
-        <v>17847.46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28">
-        <f>SUM(G3:G9)</f>
-        <v>868220.33333333326</v>
-      </c>
-      <c r="H10" s="29">
-        <f>SUM(H3:H9)</f>
-        <v>156279.66</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="12"/>
-    </row>
-    <row r="11" spans="1:31" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="12"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="25">
+        <f>SUM(G3:G16)</f>
+        <v>7423813.5</v>
+      </c>
+      <c r="H17" s="26">
+        <f>SUM(H3:H16)</f>
+        <v>1336286.4299999997</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="V10:W10"/>
+  <mergeCells count="8">
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Fivetofive Hotel/VAT RETAINED.xlsx
+++ b/Fivetofive Hotel/VAT RETAINED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89B505-B0DB-4D37-A1FD-9453DD8A29A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B466AD9D-00C3-4EEF-8BBE-042ABBCC1F42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,7 +149,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -301,10 +301,10 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -312,15 +312,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -335,15 +326,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,6 +336,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
     <col min="5" max="5" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -668,16 +668,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -712,19 +712,19 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="24">
         <v>102643158</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="7" t="str">
@@ -746,19 +746,19 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="24">
         <v>102643158</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="7" t="str">
@@ -769,7 +769,7 @@
         <f t="shared" si="0"/>
         <v>194915.22222222222</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="27">
         <v>35084.74</v>
       </c>
       <c r="J4" s="9">
@@ -780,19 +780,19 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="24">
         <v>102643158</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="25" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="7" t="str">
@@ -803,30 +803,30 @@
         <f t="shared" si="0"/>
         <v>483050.88888888888</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="27">
         <v>86949.16</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="30">
         <v>101330738</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="24">
         <v>102643158</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="7" t="str">
@@ -837,24 +837,24 @@
         <f t="shared" si="0"/>
         <v>169491.55555555556</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="27">
         <v>30508.48</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="24">
         <v>102643158</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="25" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="7" t="str">
@@ -865,24 +865,24 @@
         <f t="shared" si="0"/>
         <v>5186440.666666667</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="27">
         <v>933559.32</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="24">
         <v>102643158</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="28" t="s">
+      <c r="C8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="7" t="str">
@@ -893,24 +893,24 @@
         <f t="shared" si="0"/>
         <v>22881.333333333336</v>
       </c>
-      <c r="H8" s="33">
+      <c r="H8" s="27">
         <v>4118.6400000000003</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="24">
         <v>102643158</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="28" t="s">
+      <c r="C9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="7" t="str">
@@ -921,24 +921,24 @@
         <f t="shared" si="0"/>
         <v>144067.77777777778</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="27">
         <v>25932.2</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="24">
         <v>102643158</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="7" t="str">
@@ -949,44 +949,44 @@
         <f t="shared" si="0"/>
         <v>76271.166666666672</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="27">
         <v>13728.81</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
       <c r="AE10" s="14"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="24">
         <v>102643158</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="7" t="str">
@@ -997,27 +997,27 @@
         <f t="shared" si="0"/>
         <v>457627.11111111112</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="27">
         <v>82372.88</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="24">
         <v>101397575</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="C12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="F12" s="21" t="str">
         <f>E12</f>
         <v>05/03/2022</v>
       </c>
@@ -1025,27 +1025,27 @@
         <f t="shared" si="0"/>
         <v>53389.833333333336</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="28">
         <v>9610.17</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="24">
         <v>101397575</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="28" t="s">
+      <c r="C13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="F13" s="21" t="str">
         <f t="shared" ref="F13:F16" si="2">E13</f>
         <v>19/03/2022</v>
       </c>
@@ -1053,27 +1053,27 @@
         <f t="shared" si="0"/>
         <v>49576.277777777781</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="28">
         <v>8923.73</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="24">
         <v>101397575</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="F14" s="21" t="str">
         <f t="shared" si="2"/>
         <v>19/03/2022</v>
       </c>
@@ -1081,27 +1081,27 @@
         <f t="shared" si="0"/>
         <v>228813.55555555556</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="28">
         <v>41186.44</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>101330738</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="24" t="str">
+      <c r="F15" s="21" t="str">
         <f t="shared" si="2"/>
         <v>05/03/2022</v>
       </c>
@@ -1109,27 +1109,27 @@
         <f t="shared" si="0"/>
         <v>15762.722222222223</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="28">
         <v>2837.29</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>101330738</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="F16" s="21" t="str">
         <f t="shared" si="2"/>
         <v>27/03/2022</v>
       </c>
@@ -1137,30 +1137,31 @@
         <f t="shared" si="0"/>
         <v>30084.722222222223</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="28">
         <v>5415.25</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="25">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="22">
         <f>SUM(G3:G16)</f>
         <v>7423813.5</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="23">
         <f>SUM(H3:H16)</f>
         <v>1336286.4299999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC10:AD10"/>
@@ -1168,7 +1169,6 @@
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="T10:U10"/>
     <mergeCell ref="V10:W10"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Fivetofive Hotel/VAT RETAINED.xlsx
+++ b/Fivetofive Hotel/VAT RETAINED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B466AD9D-00C3-4EEF-8BBE-042ABBCC1F42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6531F03-100A-4644-878A-62AB34062A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>RGB</t>
   </si>
@@ -71,76 +71,43 @@
     <t>MINISPORTS</t>
   </si>
   <si>
-    <t>SDC007001447/16318</t>
-  </si>
-  <si>
-    <t>05/03/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16326</t>
-  </si>
-  <si>
-    <t>SDC007001447/16327</t>
-  </si>
-  <si>
-    <t>SDC007001447/16332</t>
-  </si>
-  <si>
-    <t>06/03/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16337</t>
-  </si>
-  <si>
-    <t>08/03/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16353</t>
-  </si>
-  <si>
-    <t>14/03/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16371</t>
-  </si>
-  <si>
-    <t>19/03/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16393</t>
-  </si>
-  <si>
-    <t>26/03/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16394</t>
-  </si>
-  <si>
     <t>DIFFERENT GOODS</t>
   </si>
   <si>
-    <t>MINISPOC</t>
-  </si>
-  <si>
-    <t>SDC007001447/16325</t>
-  </si>
-  <si>
-    <t>SDC007001447/16372</t>
-  </si>
-  <si>
-    <t>SDC007001447/16377</t>
-  </si>
-  <si>
     <t>VILLE DE KIGALI</t>
   </si>
   <si>
-    <t>SDC007001447/16319</t>
-  </si>
-  <si>
-    <t>SDC007001447/16396</t>
-  </si>
-  <si>
-    <t>27/03/2022</t>
+    <t>SDC007001447/16423</t>
+  </si>
+  <si>
+    <t>SDC007001447/16451</t>
+  </si>
+  <si>
+    <t>SDC007001447/16510</t>
+  </si>
+  <si>
+    <t>04/04/2022</t>
+  </si>
+  <si>
+    <t>15/04/2022</t>
+  </si>
+  <si>
+    <t>23/04/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16421</t>
+  </si>
+  <si>
+    <t>SDC007001447/16422</t>
+  </si>
+  <si>
+    <t>SDC007001447/16454</t>
+  </si>
+  <si>
+    <t>SDC007001447/16424</t>
+  </si>
+  <si>
+    <t>SDC007001447/16511</t>
   </si>
 </sst>
 </file>
@@ -151,7 +118,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +135,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -259,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -310,32 +270,25 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -350,9 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,7 +599,7 @@
     <col min="5" max="5" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -668,16 +618,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -712,31 +662,31 @@
       </c>
     </row>
     <row r="3" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="22">
         <v>102643158</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>14</v>
+      <c r="D3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>E3</f>
-        <v>05/03/2022</v>
+        <v>04/04/2022</v>
       </c>
       <c r="G3" s="17">
-        <f t="shared" ref="G3:G16" si="0">H3*100/18</f>
-        <v>311440.66666666669</v>
-      </c>
-      <c r="H3" s="18">
-        <v>56059.32</v>
+        <f t="shared" ref="G3:G10" si="0">H3*100/18</f>
+        <v>61016.944444444445</v>
+      </c>
+      <c r="H3" s="24">
+        <v>10983.05</v>
       </c>
       <c r="J3" s="9">
         <v>101397575</v>
@@ -746,31 +696,31 @@
       </c>
     </row>
     <row r="4" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="22">
         <v>102643158</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>14</v>
+      <c r="C4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f t="shared" ref="F4:F11" si="1">E4</f>
-        <v>05/03/2022</v>
+        <f t="shared" ref="F4:F5" si="1">E4</f>
+        <v>15/04/2022</v>
       </c>
       <c r="G4" s="17">
         <f t="shared" si="0"/>
-        <v>194915.22222222222</v>
-      </c>
-      <c r="H4" s="27">
-        <v>35084.74</v>
+        <v>84745.722222222219</v>
+      </c>
+      <c r="H4" s="24">
+        <v>15254.23</v>
       </c>
       <c r="J4" s="9">
         <v>103372638</v>
@@ -780,389 +730,221 @@
       </c>
     </row>
     <row r="5" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="22">
         <v>102643158</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>14</v>
+      <c r="C5" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>05/03/2022</v>
+        <v>23/04/2022</v>
       </c>
       <c r="G5" s="17">
         <f t="shared" si="0"/>
-        <v>483050.88888888888</v>
-      </c>
-      <c r="H5" s="27">
-        <v>86949.16</v>
-      </c>
-      <c r="J5" s="30">
+        <v>508474.61111111112</v>
+      </c>
+      <c r="H5" s="24">
+        <v>91525.43</v>
+      </c>
+      <c r="J5" s="22">
         <v>101330738</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>33</v>
+      <c r="K5" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>102643158</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="A6" s="9">
+        <v>101397575</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>06/03/2022</v>
+        <f>E6</f>
+        <v>04/04/2022</v>
       </c>
       <c r="G6" s="17">
         <f t="shared" si="0"/>
-        <v>169491.55555555556</v>
-      </c>
-      <c r="H6" s="27">
-        <v>30508.48</v>
+        <v>68644.055555555562</v>
+      </c>
+      <c r="H6" s="24">
+        <v>12355.93</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>102643158</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>20</v>
+      <c r="A7" s="9">
+        <v>101397575</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>08/03/2022</v>
+        <f t="shared" ref="F7:F10" si="2">E7</f>
+        <v>04/04/2022</v>
       </c>
       <c r="G7" s="17">
         <f t="shared" si="0"/>
-        <v>5186440.666666667</v>
-      </c>
-      <c r="H7" s="27">
-        <v>933559.32</v>
+        <v>64830.5</v>
+      </c>
+      <c r="H7" s="24">
+        <v>11669.49</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>102643158</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>22</v>
+      <c r="A8" s="9">
+        <v>101397575</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>14/03/2022</v>
+        <f t="shared" si="2"/>
+        <v>15/04/2022</v>
       </c>
       <c r="G8" s="17">
         <f t="shared" si="0"/>
-        <v>22881.333333333336</v>
-      </c>
-      <c r="H8" s="27">
-        <v>4118.6400000000003</v>
+        <v>320000</v>
+      </c>
+      <c r="H8" s="25">
+        <v>57600</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>102643158</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="A9" s="22">
+        <v>101330738</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="E9" s="23" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>19/03/2022</v>
+        <f t="shared" si="2"/>
+        <v>04/04/2022</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
-        <v>144067.77777777778</v>
-      </c>
-      <c r="H9" s="27">
-        <v>25932.2</v>
+        <v>19322.055555555555</v>
+      </c>
+      <c r="H9" s="24">
+        <v>3477.97</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>102643158</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="A10" s="22">
+        <v>101330738</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>26</v>
+      <c r="E10" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>26/03/2022</v>
+        <f t="shared" si="2"/>
+        <v>23/04/2022</v>
       </c>
       <c r="G10" s="17">
         <f t="shared" si="0"/>
-        <v>76271.166666666672</v>
-      </c>
-      <c r="H10" s="27">
-        <v>13728.81</v>
+        <v>42288.111111111109</v>
+      </c>
+      <c r="H10" s="24">
+        <v>7611.86</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="35"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="14"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>102643158</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>26/03/2022</v>
-      </c>
-      <c r="G11" s="17">
-        <f t="shared" si="0"/>
-        <v>457627.11111111112</v>
-      </c>
-      <c r="H11" s="27">
-        <v>82372.88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>101397575</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="21" t="str">
-        <f>E12</f>
-        <v>05/03/2022</v>
-      </c>
-      <c r="G12" s="17">
-        <f t="shared" si="0"/>
-        <v>53389.833333333336</v>
-      </c>
-      <c r="H12" s="28">
-        <v>9610.17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>101397575</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="21" t="str">
-        <f t="shared" ref="F13:F16" si="2">E13</f>
-        <v>19/03/2022</v>
-      </c>
-      <c r="G13" s="17">
-        <f t="shared" si="0"/>
-        <v>49576.277777777781</v>
-      </c>
-      <c r="H13" s="28">
-        <v>8923.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>101397575</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>19/03/2022</v>
-      </c>
-      <c r="G14" s="17">
-        <f t="shared" si="0"/>
-        <v>228813.55555555556</v>
-      </c>
-      <c r="H14" s="28">
-        <v>41186.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>101330738</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>05/03/2022</v>
-      </c>
-      <c r="G15" s="17">
-        <f t="shared" si="0"/>
-        <v>15762.722222222223</v>
-      </c>
-      <c r="H15" s="28">
-        <v>2837.29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>101330738</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="21" t="str">
-        <f t="shared" si="2"/>
-        <v>27/03/2022</v>
-      </c>
-      <c r="G16" s="17">
-        <f t="shared" si="0"/>
-        <v>30084.722222222223</v>
-      </c>
-      <c r="H16" s="28">
-        <v>5415.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="22">
-        <f>SUM(G3:G16)</f>
-        <v>7423813.5</v>
-      </c>
-      <c r="H17" s="23">
-        <f>SUM(H3:H16)</f>
-        <v>1336286.4299999997</v>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="18">
+        <f>SUM(G3:G10)</f>
+        <v>1169321.9999999998</v>
+      </c>
+      <c r="H11" s="19">
+        <f>SUM(H3:H10)</f>
+        <v>210477.95999999996</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A11:F11"/>
     <mergeCell ref="Z10:AA10"/>
     <mergeCell ref="AC10:AD10"/>
     <mergeCell ref="K10:M10"/>

--- a/Fivetofive Hotel/VAT RETAINED.xlsx
+++ b/Fivetofive Hotel/VAT RETAINED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6531F03-100A-4644-878A-62AB34062A23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D67288-A349-46B7-91CA-43B547A58977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>RGB</t>
   </si>
@@ -65,9 +65,6 @@
     <t>EUCL</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>MINISPORTS</t>
   </si>
   <si>
@@ -77,37 +74,64 @@
     <t>VILLE DE KIGALI</t>
   </si>
   <si>
-    <t>SDC007001447/16423</t>
-  </si>
-  <si>
-    <t>SDC007001447/16451</t>
-  </si>
-  <si>
-    <t>SDC007001447/16510</t>
-  </si>
-  <si>
-    <t>04/04/2022</t>
-  </si>
-  <si>
-    <t>15/04/2022</t>
-  </si>
-  <si>
-    <t>23/04/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16421</t>
-  </si>
-  <si>
-    <t>SDC007001447/16422</t>
-  </si>
-  <si>
-    <t>SDC007001447/16454</t>
-  </si>
-  <si>
-    <t>SDC007001447/16424</t>
-  </si>
-  <si>
-    <t>SDC007001447/16511</t>
+    <t>SDC007001447/16677</t>
+  </si>
+  <si>
+    <t>02/06/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16681</t>
+  </si>
+  <si>
+    <t>SDC007001447/16735</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16826</t>
+  </si>
+  <si>
+    <t>27/06/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16843</t>
+  </si>
+  <si>
+    <t>29/06/2022</t>
+  </si>
+  <si>
+    <t>MINISPOC</t>
+  </si>
+  <si>
+    <t>SDC007001447/16674</t>
+  </si>
+  <si>
+    <t>SDC007001447/16713</t>
+  </si>
+  <si>
+    <t>09/06/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16787</t>
+  </si>
+  <si>
+    <t>21/06/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16814</t>
+  </si>
+  <si>
+    <t>24/06/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16815</t>
+  </si>
+  <si>
+    <t>SDC007001447/16816</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -118,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +153,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,21 +263,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -284,8 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,12 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,10 +597,10 @@
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -617,19 +618,19 @@
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -642,7 +643,7 @@
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -661,66 +662,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>102643158</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>E3</f>
-        <v>04/04/2022</v>
-      </c>
-      <c r="G3" s="17">
-        <f t="shared" ref="G3:G10" si="0">H3*100/18</f>
-        <v>61016.944444444445</v>
-      </c>
-      <c r="H3" s="24">
-        <v>10983.05</v>
+        <v>02/06/2022</v>
+      </c>
+      <c r="G3" s="14">
+        <f t="shared" ref="G3:G7" si="0">H3*100/18</f>
+        <v>22881.333333333336</v>
+      </c>
+      <c r="H3" s="25">
+        <v>4118.6400000000003</v>
       </c>
       <c r="J3" s="9">
         <v>101397575</v>
       </c>
       <c r="K3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>102643158</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>102643158</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>19</v>
+      <c r="E4" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F5" si="1">E4</f>
-        <v>15/04/2022</v>
-      </c>
-      <c r="G4" s="17">
+        <v>02/06/2022</v>
+      </c>
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>84745.722222222219</v>
-      </c>
-      <c r="H4" s="24">
-        <v>15254.23</v>
+        <v>169491.55555555556</v>
+      </c>
+      <c r="H4" s="25">
+        <v>30508.48</v>
       </c>
       <c r="J4" s="9">
         <v>103372638</v>
@@ -729,228 +730,286 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>102643158</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>20</v>
+      <c r="E5" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>23/04/2022</v>
-      </c>
-      <c r="G5" s="17">
+        <v>15/06/2022</v>
+      </c>
+      <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>508474.61111111112</v>
-      </c>
-      <c r="H5" s="24">
-        <v>91525.43</v>
-      </c>
-      <c r="J5" s="22">
+        <v>1288135.611111111</v>
+      </c>
+      <c r="H5" s="25">
+        <v>231864.41</v>
+      </c>
+      <c r="J5" s="19">
         <v>101330738</v>
       </c>
-      <c r="K5" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>101397575</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="K5" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>102643158</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>18</v>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>E6</f>
-        <v>04/04/2022</v>
-      </c>
-      <c r="G6" s="17">
+        <v>27/06/2022</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>68644.055555555562</v>
-      </c>
-      <c r="H6" s="24">
-        <v>12355.93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+        <v>1525423.7222222222</v>
+      </c>
+      <c r="H6" s="25">
+        <v>274576.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>102643158</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" ref="F7:F9" si="2">E7</f>
+        <v>29/06/2022</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>330508.44444444444</v>
+      </c>
+      <c r="H7" s="25">
+        <v>59491.519999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <v>101397575</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f t="shared" ref="F7:F10" si="2">E7</f>
-        <v>04/04/2022</v>
-      </c>
-      <c r="G7" s="17">
-        <f t="shared" si="0"/>
-        <v>64830.5</v>
-      </c>
-      <c r="H7" s="24">
-        <v>11669.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>101397575</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>19</v>
+      <c r="D8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>15/04/2022</v>
-      </c>
-      <c r="G8" s="17">
-        <f t="shared" si="0"/>
-        <v>320000</v>
+        <v>02/06/2022</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" ref="G8:G13" si="3">H8*100/18</f>
+        <v>190677.94444444444</v>
       </c>
       <c r="H8" s="25">
-        <v>57600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>101330738</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>18</v>
+        <v>34322.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>101397575</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>04/04/2022</v>
-      </c>
-      <c r="G9" s="17">
-        <f t="shared" si="0"/>
-        <v>19322.055555555555</v>
-      </c>
-      <c r="H9" s="24">
-        <v>3477.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" s="10" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>101330738</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>20</v>
+        <v>09/06/2022</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="3"/>
+        <v>45762.722222222226</v>
+      </c>
+      <c r="H9" s="25">
+        <v>8237.2900000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>101397575</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>23/04/2022</v>
-      </c>
-      <c r="G10" s="17">
-        <f t="shared" si="0"/>
-        <v>42288.111111111109</v>
-      </c>
-      <c r="H10" s="24">
-        <v>7611.86</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-      <c r="W10" s="30"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="30"/>
-      <c r="AE10" s="14"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="18">
-        <f>SUM(G3:G10)</f>
-        <v>1169321.9999999998</v>
-      </c>
-      <c r="H11" s="19">
-        <f>SUM(H3:H10)</f>
-        <v>210477.95999999996</v>
+        <f t="shared" ref="F10:F13" si="4">E10</f>
+        <v>21/06/2022</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="3"/>
+        <v>167796.61111111112</v>
+      </c>
+      <c r="H10" s="25">
+        <v>30203.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>101397575</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>24/06/2022</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="3"/>
+        <v>76271.166666666672</v>
+      </c>
+      <c r="H11" s="25">
+        <v>13728.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>101397575</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>24/06/2022</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="3"/>
+        <v>45762.722222222226</v>
+      </c>
+      <c r="H12" s="25">
+        <v>8237.2900000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>101397575</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>24/06/2022</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="3"/>
+        <v>106779.66666666667</v>
+      </c>
+      <c r="H13" s="25">
+        <v>19220.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="15">
+        <f>SUM(G3:G13)</f>
+        <v>3969491.4999999991</v>
+      </c>
+      <c r="H14" s="16">
+        <f>SUM(H3:H13)</f>
+        <v>714508.4700000002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Fivetofive Hotel/VAT RETAINED.xlsx
+++ b/Fivetofive Hotel/VAT RETAINED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Fivetofive Hotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D67288-A349-46B7-91CA-43B547A58977}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36438121-F384-4900-9DE0-67E1E9708F24}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>RGB</t>
   </si>
@@ -74,64 +74,79 @@
     <t>VILLE DE KIGALI</t>
   </si>
   <si>
-    <t>SDC007001447/16677</t>
-  </si>
-  <si>
-    <t>02/06/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16681</t>
-  </si>
-  <si>
-    <t>SDC007001447/16735</t>
-  </si>
-  <si>
-    <t>15/06/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16826</t>
-  </si>
-  <si>
-    <t>27/06/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16843</t>
-  </si>
-  <si>
-    <t>29/06/2022</t>
-  </si>
-  <si>
     <t>MINISPOC</t>
   </si>
   <si>
-    <t>SDC007001447/16674</t>
-  </si>
-  <si>
-    <t>SDC007001447/16713</t>
-  </si>
-  <si>
-    <t>09/06/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16787</t>
-  </si>
-  <si>
-    <t>21/06/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16814</t>
-  </si>
-  <si>
-    <t>24/06/2022</t>
-  </si>
-  <si>
-    <t>SDC007001447/16815</t>
-  </si>
-  <si>
-    <t>SDC007001447/16816</t>
-  </si>
-  <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>102643158</t>
+  </si>
+  <si>
+    <t>RWANDA GOVERNANCE BOARD</t>
+  </si>
+  <si>
+    <t>SDC007001447/16881</t>
+  </si>
+  <si>
+    <t>08/07/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16896</t>
+  </si>
+  <si>
+    <t>11/07/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16912</t>
+  </si>
+  <si>
+    <t>14/07/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16913</t>
+  </si>
+  <si>
+    <t>SDC007001447/16916</t>
+  </si>
+  <si>
+    <t>16/07/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16919</t>
+  </si>
+  <si>
+    <t>79,322.03</t>
+  </si>
+  <si>
+    <t>2,898.31</t>
+  </si>
+  <si>
+    <t>18,305.09</t>
+  </si>
+  <si>
+    <t>4,118.64</t>
+  </si>
+  <si>
+    <t>6,864.41</t>
+  </si>
+  <si>
+    <t>24,711.86</t>
+  </si>
+  <si>
+    <t>101397575</t>
+  </si>
+  <si>
+    <t>SDC007001447/16873</t>
+  </si>
+  <si>
+    <t>07/07/2022</t>
+  </si>
+  <si>
+    <t>SDC007001447/16897</t>
+  </si>
+  <si>
+    <t>11,593.22</t>
   </si>
 </sst>
 </file>
@@ -236,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,17 +296,12 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,7 +314,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G3" sqref="G3:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -600,7 +625,7 @@
     <col min="5" max="5" width="17.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -619,16 +644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -652,7 +677,7 @@
       <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="3">
@@ -663,32 +688,33 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>102643158</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>15</v>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>E3</f>
-        <v>02/06/2022</v>
+        <v>08/07/2022</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" ref="G3:G7" si="0">H3*100/18</f>
-        <v>22881.333333333336</v>
-      </c>
-      <c r="H3" s="25">
-        <v>4118.6400000000003</v>
-      </c>
+        <v>440677.94444444444</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="24"/>
       <c r="J3" s="9">
         <v>101397575</v>
       </c>
@@ -697,32 +723,33 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>102643158</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>15</v>
+      <c r="D4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F5" si="1">E4</f>
-        <v>02/06/2022</v>
+        <v>11/07/2022</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="0"/>
-        <v>169491.55555555556</v>
-      </c>
-      <c r="H4" s="25">
-        <v>30508.48</v>
-      </c>
+        <v>16101.722222222223</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="24"/>
       <c r="J4" s="9">
         <v>103372638</v>
       </c>
@@ -731,285 +758,208 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>102643158</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="20" t="s">
+      <c r="A5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>18</v>
+      <c r="D5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>15/06/2022</v>
+        <v>14/07/2022</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="0"/>
-        <v>1288135.611111111</v>
-      </c>
-      <c r="H5" s="25">
-        <v>231864.41</v>
-      </c>
-      <c r="J5" s="19">
+        <v>101694.94444444444</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="17">
         <v>101330738</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>102643158</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>20</v>
+      <c r="D6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>E6</f>
-        <v>27/06/2022</v>
+        <v>14/07/2022</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>1525423.7222222222</v>
-      </c>
-      <c r="H6" s="25">
-        <v>274576.27</v>
-      </c>
+        <v>22881.333333333336</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>102643158</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="20" t="s">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>22</v>
+      <c r="D7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" ref="F7:F9" si="2">E7</f>
-        <v>29/06/2022</v>
+        <v>16/07/2022</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="0"/>
-        <v>330508.44444444444</v>
-      </c>
-      <c r="H7" s="25">
-        <v>59491.519999999997</v>
-      </c>
+        <v>38135.611111111109</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>101397575</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="20" t="s">
+      <c r="A8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>15</v>
+      <c r="D8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>02/06/2022</v>
+        <v>16/07/2022</v>
       </c>
       <c r="G8" s="14">
-        <f t="shared" ref="G8:G13" si="3">H8*100/18</f>
-        <v>190677.94444444444</v>
-      </c>
-      <c r="H8" s="25">
-        <v>34322.03</v>
-      </c>
+        <f t="shared" ref="G8:G10" si="3">H8*100/18</f>
+        <v>137288.11111111112</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>101397575</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>26</v>
+      <c r="D9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="2"/>
-        <v>09/06/2022</v>
+        <v>07/07/2022</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="3"/>
-        <v>45762.722222222226</v>
-      </c>
-      <c r="H9" s="25">
-        <v>8237.2900000000009</v>
-      </c>
+        <v>64406.777777777781</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>101397575</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="A10" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>28</v>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f t="shared" ref="F10:F13" si="4">E10</f>
-        <v>21/06/2022</v>
+        <f t="shared" ref="F10" si="4">E10</f>
+        <v>11/07/2022</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="3"/>
-        <v>167796.61111111112</v>
-      </c>
-      <c r="H10" s="25">
-        <v>30203.39</v>
-      </c>
+        <v>38135.611111111109</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>101397575</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>24/06/2022</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="3"/>
-        <v>76271.166666666672</v>
-      </c>
-      <c r="H11" s="25">
-        <v>13728.81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>101397575</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>24/06/2022</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="3"/>
-        <v>45762.722222222226</v>
-      </c>
-      <c r="H12" s="25">
-        <v>8237.2900000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>101397575</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v>24/06/2022</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="3"/>
-        <v>106779.66666666667</v>
-      </c>
-      <c r="H13" s="25">
-        <v>19220.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="15">
-        <f>SUM(G3:G13)</f>
-        <v>3969491.4999999991</v>
-      </c>
-      <c r="H14" s="16">
-        <f>SUM(H3:H13)</f>
-        <v>714508.4700000002</v>
-      </c>
+      <c r="A11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="15">
+        <f>SUM(G3:G10)</f>
+        <v>859322.05555555562</v>
+      </c>
+      <c r="H11" s="28">
+        <f>H10+H9+H8+H7+H6+H5+H4+H3</f>
+        <v>154677.96999999997</v>
+      </c>
+      <c r="I11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
